--- a/demand_spreadsheet_model.xlsx
+++ b/demand_spreadsheet_model.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Passenger_mobility_demand_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\YSSP_2023\message_data\message_data\projects\yssp\gaur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46BE59-35E3-4EE4-BA17-127659731CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5BFE54-57F8-4810-8E23-59197C5CCF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="India" sheetId="2" r:id="rId1"/>
-    <sheet name="long_dist" sheetId="4" r:id="rId2"/>
+    <sheet name="simple_calc" sheetId="1" r:id="rId1"/>
+    <sheet name="India" sheetId="2" r:id="rId2"/>
+    <sheet name="Bangladesh" sheetId="3" r:id="rId3"/>
+    <sheet name="long_dist" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,8 +78,210 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Average values- figure 1.2-20 from pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    "C:\Users\agaur\OneDrive - University College Cork\Internship\IIASA\bangladesh_transport_study.pdf"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    http://railway.portal.gov.bd/sites/default/files/files/railway.portal.gov.bd/page/3951d3b2_dcc8_463d_9657_4e3cc6e49b8b/Information%20Book%202018%20(3).pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="106">
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>Mode share</t>
+  </si>
+  <si>
+    <t>LDV occupancy</t>
+  </si>
+  <si>
+    <t>Population groups</t>
+  </si>
+  <si>
+    <t>degree of urbanisation (India)</t>
+  </si>
+  <si>
+    <t>Phenomena</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Urbanisation</t>
+  </si>
+  <si>
+    <t>MaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2W</t>
+  </si>
+  <si>
+    <t>Ride hailing</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUS</t>
+  </si>
+  <si>
+    <t>Shared mobility</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LDV</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitalisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAIL</t>
+  </si>
+  <si>
+    <t>Avg occ</t>
+  </si>
+  <si>
+    <t>e-life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AIR</t>
+  </si>
+  <si>
+    <t>NMT</t>
+  </si>
+  <si>
+    <t>Total PDT</t>
+  </si>
+  <si>
+    <t>Transit oriented development</t>
+  </si>
+  <si>
+    <t>Public Transport</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Public transport</t>
+  </si>
+  <si>
+    <t>Higher standard of living</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Vehicle ownership</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Policy measures</t>
+  </si>
+  <si>
+    <t>High speed rail</t>
+  </si>
+  <si>
+    <t>LDV type</t>
+  </si>
+  <si>
+    <t>Vehicle choice</t>
+  </si>
+  <si>
+    <t>Environmental awareness</t>
+  </si>
+  <si>
+    <t>NMT infra</t>
+  </si>
+  <si>
+    <t>Mode choice (Beh)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
   <si>
     <t>Country</t>
   </si>
@@ -160,7 +364,70 @@
     <t>rural</t>
   </si>
   <si>
+    <t>Area_type</t>
+  </si>
+  <si>
+    <t>Trip distance (km)</t>
+  </si>
+  <si>
+    <t>Trip share</t>
+  </si>
+  <si>
+    <t>Mode Share</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Total Pop</t>
+  </si>
+  <si>
+    <t>Urban_area type</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Autorickshaw</t>
+  </si>
+  <si>
+    <t>Private bus</t>
+  </si>
+  <si>
+    <t>Rickshaw</t>
+  </si>
+  <si>
+    <t>Large cities</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Home to work</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Home to school</t>
+  </si>
+  <si>
+    <t>Towns</t>
+  </si>
+  <si>
+    <t>To home</t>
+  </si>
+  <si>
+    <t>NHBB</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Railway (mpkm)</t>
   </si>
   <si>
     <t>No_travel</t>
@@ -197,12 +464,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -217,15 +493,45 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -282,13 +588,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -319,8 +691,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -406,6 +805,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>353520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12459600" y="3552840"/>
+          <a:ext cx="7261920" cy="2334960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,10 +1200,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X45"/>
+  <sheetViews>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" activeCellId="1" sqref="D26:D33 B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="3">
+        <f>X2*45%</f>
+        <v>0.15300000000000002</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0.8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="3">
+        <f>X2*35%</f>
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>1.2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1.2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="4">
+        <f>X2-(V3+V2)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1.2</v>
+      </c>
+      <c r="S5">
+        <v>1.2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="4">
+        <f>100%-X2</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
+        <v>1.2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <f>PRODUCT(P3:P5)</f>
+        <v>0.96</v>
+      </c>
+      <c r="Q6">
+        <f>PRODUCT(Q3:Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>PRODUCT(R3:R5)</f>
+        <v>1.2</v>
+      </c>
+      <c r="S6">
+        <f>PRODUCT(S3:S5)</f>
+        <v>1.1519999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9">
+        <v>0.85</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>0.75</v>
+      </c>
+      <c r="M9">
+        <v>0.75</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>1.35</v>
+      </c>
+      <c r="K10">
+        <v>1.35</v>
+      </c>
+      <c r="L10">
+        <v>1.35</v>
+      </c>
+      <c r="M10">
+        <v>1.35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:S11" si="0">J40*B$12/6</f>
+        <v>0.14871599999999999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.12342000000000004</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.1667952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+      <c r="C11">
+        <v>1.2</v>
+      </c>
+      <c r="D11">
+        <v>1.2</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <v>0.75</v>
+      </c>
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+      <c r="M11">
+        <v>0.75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.17900999999999945</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.16957499999999948</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.15371400000000046</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.18105119999999944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f>PRODUCT(B3:B11)</f>
+        <v>0.99143999999999999</v>
+      </c>
+      <c r="C12">
+        <f>PRODUCT(C3:C11)</f>
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="D12">
+        <f>PRODUCT(D3:D11)</f>
+        <v>0.80784000000000011</v>
+      </c>
+      <c r="E12">
+        <f>PRODUCT(E3:E11)</f>
+        <v>1.026432</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>1.25</v>
+      </c>
+      <c r="K12">
+        <v>1.25</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <v>1.25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12">
+        <f>J42*B$12/6/P6</f>
+        <v>0.13770000000000002</v>
+      </c>
+      <c r="Q12">
+        <f>K42*C$12/6/Q6</f>
+        <v>0.12749999999999995</v>
+      </c>
+      <c r="R12">
+        <f>L42*D$12/6/R6</f>
+        <v>8.4150000000000016E-2</v>
+      </c>
+      <c r="S12">
+        <f>M42*E$12/6/S6</f>
+        <v>0.12251250000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:S15" si="1">J43*B$12/6</f>
+        <v>0.18727199999999944</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0.16447499999999998</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0.14922599999999958</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0.19815839999999943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <v>0.9</v>
+      </c>
+      <c r="K14">
+        <v>0.9</v>
+      </c>
+      <c r="L14">
+        <v>0.9</v>
+      </c>
+      <c r="M14">
+        <v>0.9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0.16524</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0.153</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0.13464000000000001</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0.171072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0.75</v>
+      </c>
+      <c r="K15">
+        <v>0.75</v>
+      </c>
+      <c r="L15">
+        <v>0.75</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0.17900999999999945</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0.16574999999999948</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0.14585999999999957</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0.16822079999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>1.2</v>
+      </c>
+      <c r="K16">
+        <v>1.2</v>
+      </c>
+      <c r="L16">
+        <v>1.2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>0.65</v>
+      </c>
+      <c r="K17">
+        <v>0.65</v>
+      </c>
+      <c r="L17">
+        <v>0.65</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="7">
+        <f>SUM(P10:P15)</f>
+        <v>0.99694799999999839</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>SUM(Q10:Q15)</f>
+        <v>0.91799999999999893</v>
+      </c>
+      <c r="R17" s="7">
+        <f>SUM(R10:R15)</f>
+        <v>0.79100999999999955</v>
+      </c>
+      <c r="S17" s="7">
+        <f>SUM(S10:S15)</f>
+        <v>1.0078100999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>1.2</v>
+      </c>
+      <c r="K18">
+        <v>1.2</v>
+      </c>
+      <c r="L18">
+        <v>1.2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>1.2</v>
+      </c>
+      <c r="K20">
+        <v>1.2</v>
+      </c>
+      <c r="L20">
+        <v>1.2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>0.85</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>1.35</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>0.9</v>
+      </c>
+      <c r="K27">
+        <v>0.9</v>
+      </c>
+      <c r="L27">
+        <v>0.9</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>0.8</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>1.3</v>
+      </c>
+      <c r="K32">
+        <v>1.3</v>
+      </c>
+      <c r="L32">
+        <v>1.3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>0.8</v>
+      </c>
+      <c r="K35">
+        <v>0.8</v>
+      </c>
+      <c r="L35">
+        <v>0.8</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>0.9</v>
+      </c>
+      <c r="K40">
+        <v>0.9</v>
+      </c>
+      <c r="L40">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="M40">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="K41">
+        <v>1.1083333333333301</v>
+      </c>
+      <c r="L41">
+        <v>1.1416666666666699</v>
+      </c>
+      <c r="M41">
+        <v>1.05833333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <v>0.8</v>
+      </c>
+      <c r="K42">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="L42">
+        <v>0.75</v>
+      </c>
+      <c r="M42">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="K43">
+        <v>1.075</v>
+      </c>
+      <c r="L43">
+        <v>1.1083333333333301</v>
+      </c>
+      <c r="M43">
+        <v>1.1583333333333301</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="K45">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="L45">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="M45">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N33"/>
     </sheetView>
   </sheetViews>
@@ -784,1506 +2627,1506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
+      <c r="A2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+        <v>96</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
         <v>0.18821664909251201</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
         <v>1.5</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="16">
         <f>(260/365*M2)</f>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
+      <c r="A3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7">
+        <v>64</v>
+      </c>
+      <c r="E3" s="14">
         <v>0.5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="15">
         <v>0.160579817941501</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="15">
         <v>2.6365740246856801E-2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="15">
         <v>4.3023888334934701E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="15">
         <v>0.79803114155687305</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="15">
         <v>9.1829962500002305E-2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="15">
         <v>1.4818550499814301E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="15">
         <v>2.0499155348474601E-2</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="14">
         <v>1.5</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="16">
         <f t="shared" ref="N3:N33" si="0">(260/365*M3)</f>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
         <v>3.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="15">
         <v>0.246012615431391</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="15">
         <v>6.0754565182454402E-2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="15">
         <v>0.18335932947696401</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="15">
         <v>0.44170968683355999</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="15">
         <v>0.21809918235390899</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="15">
         <v>2.8123900052550901E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="15">
         <v>5.99141683583879E-2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="14">
         <v>1.5</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
+      <c r="A5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7">
+        <v>66</v>
+      </c>
+      <c r="E5" s="14">
         <v>8</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="15">
         <v>0.18741879318586499</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="15">
         <v>8.5327383080475605E-2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="15">
         <v>0.27789197204420801</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="15">
         <v>0.28716273820774701</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="15">
         <v>0.22764991003763799</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="15">
         <v>6.79782847909738E-2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="15">
         <v>4.6885419238194601E-2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="14">
         <v>1.5</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
+      <c r="A6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7">
+        <v>67</v>
+      </c>
+      <c r="E6" s="14">
         <v>15.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="15">
         <v>0.11683408957076399</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="15">
         <v>0.15051308714112199</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="15">
         <v>0.33337442217198698</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="15">
         <v>5.3198454679054201E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="15">
         <v>0.24573634096711999</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="15">
         <v>0.16605167488054101</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="15">
         <v>4.0633055304625298E-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="14">
         <v>1.5</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
+      <c r="A7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14">
         <v>25.5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="15">
         <v>5.2979087534207103E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="15">
         <v>0.15709205408832899</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="15">
         <v>0.257270952131324</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="15">
         <v>0.126017818840264</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="15">
         <v>0.15141035296595301</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="15">
         <v>0.25478835548861001</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="15">
         <v>4.1221519958062502E-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="14">
         <v>1.5</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7">
+        <v>69</v>
+      </c>
+      <c r="E8" s="14">
         <v>40.5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
         <v>3.3580289166144597E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="15">
         <v>0.14759604532526699</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="15">
         <v>0.22002347523813801</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
         <v>0.12361338088573801</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="15">
         <v>0.434092366033136</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="15">
         <v>6.0037921538530901E-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="14">
         <v>1.5</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7">
+        <v>70</v>
+      </c>
+      <c r="E9" s="14">
         <v>60</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="15">
         <v>1.4378658077615699E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="15">
         <v>9.9907430641511905E-2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="15">
         <v>0.18700486463576299</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
         <v>8.2331904377328693E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="15">
         <v>0.53343145544756898</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="15">
         <v>6.8341068532954893E-2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="14">
         <v>1.5</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>1.0684931506849313</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7">
+        <v>96</v>
+      </c>
+      <c r="E10" s="14">
         <f t="shared" ref="E10:E16" si="1">E2</f>
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="15">
         <v>0.24504891777815199</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
         <v>1.3</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
+      <c r="A11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7">
+        <v>64</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="15">
         <v>0.148696165994084</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="15">
         <v>2.0333765420329698E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="15">
         <v>2.3655804540991501E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="15">
         <v>0.78426613119945698</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="15">
         <v>0.14143918779263001</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="15">
         <v>5.3248128891353504E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="15">
         <v>1.9527567069045501E-2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="14">
         <v>1.3</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
+      <c r="A12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10">
+        <v>65</v>
+      </c>
+      <c r="E12" s="17">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="15">
         <v>0.28685664566191099</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="15">
         <v>3.96703669770022E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="15">
         <v>0.106025174348088</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="15">
         <v>0.50517989846354605</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="15">
         <v>0.28837180142015101</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="15">
         <v>5.0448429480514098E-3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="15">
         <v>4.9521740866498097E-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="14">
         <v>1.3</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
+      <c r="A13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7">
+        <v>66</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="15">
         <v>0.18072697225569601</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="15">
         <v>5.0569824263558702E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="15">
         <v>0.18632765898871201</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="15">
         <v>0.391250172065705</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="15">
         <v>0.30094292006974399</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="15">
         <v>6.7332178581260898E-3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="15">
         <v>5.7219877030375302E-2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="14">
         <v>1.3</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
+      <c r="A14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7">
+        <v>67</v>
+      </c>
+      <c r="E14" s="14">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="15">
         <v>6.9739598069275502E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="15">
         <v>8.3280816176077105E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="15">
         <v>0.314212629088163</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="15">
         <v>0.14568754867745901</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="15">
         <v>0.352477571210292</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="15">
         <v>2.09283348890302E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="15">
         <v>7.3625586359015199E-2</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="14">
         <v>1.3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
+      <c r="A15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
+        <v>68</v>
+      </c>
+      <c r="E15" s="14">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
         <v>3.48775732631635E-2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="15">
         <v>6.7302577026982793E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="15">
         <v>0.25028456963857398</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="15">
         <v>0.43292180947654002</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="15">
         <v>0.15857884585092999</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="15">
         <v>4.3960436647219797E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="15">
         <v>3.9122009789789899E-2</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="14">
         <v>1.3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
+      <c r="A16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7">
+        <v>69</v>
+      </c>
+      <c r="E16" s="14">
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="18">
         <v>1.7259927547299801E-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="15">
         <v>0.12842094516278199</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="15">
         <v>0.417603041240518</v>
       </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>0.235491949480815</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="15">
         <v>0.13164595732414</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="15">
         <v>6.7824347940976804E-2</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="14">
         <v>1.3</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
+      <c r="A17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7">
+        <v>70</v>
+      </c>
+      <c r="E17" s="14">
         <v>60</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="18">
         <v>1.6794199430418599E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="15">
         <v>8.4293103235442896E-2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="15">
         <v>0.359447715685911</v>
       </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
         <v>0.100050611660432</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="15">
         <v>0.38351294300633199</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="15">
         <v>3.8585218926292103E-2</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="14">
         <v>1.3</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="16">
         <f t="shared" si="0"/>
         <v>0.92602739726027394</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
+      <c r="A18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="7">
+        <v>96</v>
+      </c>
+      <c r="E18" s="14">
         <f t="shared" ref="E18:E24" si="2">E10</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="15">
         <v>0.26606850501711699</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="7">
+        <v>64</v>
+      </c>
+      <c r="E19" s="14">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="15">
         <v>0.20118074925951401</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="15">
         <v>1.42978983785273E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="15">
         <v>1.60162759590926E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="15">
         <v>0.80937360145485504</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="15">
         <v>0.136283799718559</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="15">
         <v>5.4408844523926502E-3</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="15">
         <v>1.29968328827312E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
+      <c r="A20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10">
+        <v>65</v>
+      </c>
+      <c r="E20" s="17">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="15">
         <v>0.27788246678436701</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="15">
         <v>3.0543578701592699E-2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="15">
         <v>6.5237625979053498E-2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="15">
         <v>0.58133350491928604</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="15">
         <v>0.26128596759078698</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="15">
         <v>7.3601352390435301E-3</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="15">
         <v>4.5431166224169102E-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
+      <c r="A21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="7">
+        <v>66</v>
+      </c>
+      <c r="E21" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="15">
         <v>0.125240765944791</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="15">
         <v>4.1972290279187502E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="15">
         <v>0.16905856365616501</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="15">
         <v>0.46716728369475402</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="15">
         <v>0.23484778152316299</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="15">
         <v>1.8566523013646401E-2</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="15">
         <v>5.6932014629208501E-2</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>16</v>
+      <c r="A22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7">
+        <v>67</v>
+      </c>
+      <c r="E22" s="14">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="15">
         <v>5.1038540575519202E-2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="15">
         <v>7.5732006619267295E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="15">
         <v>0.36643606879656798</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="15">
         <v>0.11273418537674799</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="15">
         <v>0.28627427953927098</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="15">
         <v>8.0641974081875803E-2</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="15">
         <v>6.2154717187793702E-2</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>16</v>
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="7">
+        <v>68</v>
+      </c>
+      <c r="E23" s="14">
         <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="15">
         <v>3.38169848733322E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="15">
         <v>5.3649495868314301E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="15">
         <v>0.29730753417507899</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="15">
         <v>0.35709054345672597</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="15">
         <v>0.14221562307608701</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="15">
         <v>0.106979023094407</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="15">
         <v>3.1802156273366501E-2</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>16</v>
+      <c r="A24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7">
+        <v>69</v>
+      </c>
+      <c r="E24" s="14">
         <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="15">
         <v>2.1238191185474899E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="15">
         <v>8.3765925403307795E-2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="15">
         <v>0.454090064176492</v>
       </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
         <v>0.175007801582025</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="15">
         <v>0.22008059373431199</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="15">
         <v>4.5735587425206503E-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>16</v>
+      <c r="A25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="7">
+        <v>70</v>
+      </c>
+      <c r="E25" s="14">
         <v>60</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="15">
         <v>2.3533796359884701E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="15">
         <v>6.8333385372376002E-2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="15">
         <v>0.43837750835838801</v>
       </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
         <v>7.6261074367465403E-2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="15">
         <v>0.34827037527496502</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="15">
         <v>2.99585707997298E-2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="16">
         <f t="shared" si="0"/>
         <v>0.78356164383561644</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>16</v>
+      <c r="A26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="7">
+        <v>96</v>
+      </c>
+      <c r="E26" s="14">
         <f t="shared" ref="E26:E32" si="3">E18</f>
         <v>0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="15">
         <v>0.38751184134842398</v>
       </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7">
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
         <v>0.8</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
+      <c r="A27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7">
+        <v>64</v>
+      </c>
+      <c r="E27" s="14">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="15">
         <v>0.142686015388338</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="15">
         <v>8.0053345109954502E-3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="15">
         <v>2.0920585897717701E-2</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="15">
         <v>0.90072809458036596</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="15">
         <v>4.7884015418053698E-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="15">
         <v>6.5549352700750201E-3</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="15">
         <v>9.3722907898837193E-3</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="14">
         <v>0.8</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
+      <c r="A28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10">
+        <v>65</v>
+      </c>
+      <c r="E28" s="17">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="15">
         <v>0.179791853763212</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="15">
         <v>1.8205337195522E-2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="15">
         <v>8.1289118094613505E-2</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="15">
         <v>0.72207796219564202</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="15">
         <v>0.123784799035439</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="15">
         <v>7.3067315541823497E-3</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="15">
         <v>3.57129319501618E-2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="14">
         <v>0.8</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
+      <c r="A29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="7">
+        <v>66</v>
+      </c>
+      <c r="E29" s="14">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="15">
         <v>0.125667345721832</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="15">
         <v>2.4788503222838699E-2</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="15">
         <v>0.18218250715731099</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="15">
         <v>0.56096940941109696</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="15">
         <v>0.148707724813786</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="15">
         <v>1.08391350200286E-2</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="15">
         <v>5.6497229240758701E-2</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="14">
         <v>0.8</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
+      <c r="A30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="7">
+        <v>67</v>
+      </c>
+      <c r="E30" s="14">
         <f t="shared" si="3"/>
         <v>15.5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="15">
         <v>6.6459400258033596E-2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="15">
         <v>4.2383306713409098E-2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="15">
         <v>0.37442411998430303</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="15">
         <v>0.22555815661290099</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="15">
         <v>0.22730908256494201</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="15">
         <v>2.8747777175390999E-2</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="15">
         <v>7.90926871290141E-2</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="14">
         <v>0.8</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>16</v>
+      <c r="A31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="7">
+        <v>68</v>
+      </c>
+      <c r="E31" s="14">
         <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="15">
         <v>3.8093122659615501E-2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="15">
         <v>3.6677211681426097E-2</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="15">
         <v>0.37693056540617498</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="15">
         <v>0.31668759976125599</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="15">
         <v>0.153212938930544</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="15">
         <v>5.0667100009567902E-2</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="15">
         <v>4.6219361619082397E-2</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="14">
         <v>0.8</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>16</v>
+      <c r="A32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="7">
+        <v>69</v>
+      </c>
+      <c r="E32" s="14">
         <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="15">
         <v>2.5545632303476201E-2</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="15">
         <v>5.4106656110183497E-2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="15">
         <v>0.56704619880551099</v>
       </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
         <v>0.15266830509564699</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="15">
         <v>0.146019170162595</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="15">
         <v>4.61113884100324E-2</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="14">
         <v>0.8</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>16</v>
+      <c r="A33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="7">
+        <v>70</v>
+      </c>
+      <c r="E33" s="14">
         <v>60</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="15">
         <v>3.4244788557068903E-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="15">
         <v>3.5745913606355303E-2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="15">
         <v>0.50156623831487501</v>
       </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
         <v>5.1253210273279899E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="15">
         <v>0.34187209994191797</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="15">
         <v>2.2857179541153499E-2</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="14">
         <v>0.8</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="16">
         <f t="shared" si="0"/>
         <v>0.56986301369863013</v>
       </c>
@@ -2295,12 +4138,628 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" customWidth="1"/>
+    <col min="18" max="18" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="P2">
+        <f>171186.372*10^3</f>
+        <v>171186372</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="19">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="20">
+        <v>4.875</v>
+      </c>
+      <c r="E3" s="17">
+        <v>17.95</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L3">
+        <f>$P$2*$Q$2*$S$2</f>
+        <v>23106736.492560003</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="N3">
+        <f>D3*E3*L3*M3</f>
+        <v>889672898.48891461</v>
+      </c>
+      <c r="R3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>11.65</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="L4">
+        <f>$P$2*$Q$2*$S$2</f>
+        <v>23106736.492560003</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N4">
+        <f>D4*E4*L4*M4</f>
+        <v>252543863.39176866</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4.085</v>
+      </c>
+      <c r="E5" s="17">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="L5">
+        <f>$P$2*$Q$2*$S$2</f>
+        <v>23106736.492560003</v>
+      </c>
+      <c r="M5" s="14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N5">
+        <f>D5*E5*L5*M5</f>
+        <v>4110540076.778142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="E6" s="17">
+        <v>7.65</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="L6">
+        <f>$P$2*$Q$2*$S$2</f>
+        <v>23106736.492560003</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="N6">
+        <f>D6*E6*L6*M6</f>
+        <v>257416265.38227236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3.75</v>
+      </c>
+      <c r="E7" s="17">
+        <v>24.55</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="L7">
+        <f>$P$2*$Q$2*$S$2</f>
+        <v>23106736.492560003</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="N7">
+        <f>D7*E7*L7*M7</f>
+        <v>1340176274.8581724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8">
+        <f>$Q$2*$P$2*$S$3</f>
+        <v>20388296.905200001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <f>$Q$2*$P$2*$S$3</f>
+        <v>20388296.905200001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10">
+        <f>$Q$2*$P$2*$S$3</f>
+        <v>20388296.905200001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11">
+        <f>$Q$2*$P$2*$S$3</f>
+        <v>20388296.905200001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12">
+        <f>$Q$2*$P$2*$S$3</f>
+        <v>20388296.905200001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13">
+        <f>$P$2*$Q$2*$S$4</f>
+        <v>24465956.28624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <f>$P$2*$Q$2*$S$4</f>
+        <v>24465956.28624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15">
+        <f>$P$2*$Q$2*$S$4</f>
+        <v>24465956.28624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16">
+        <f>$P$2*$Q$2*$S$4</f>
+        <v>24465956.28624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17">
+        <f>$P$2*$Q$2*$S$4</f>
+        <v>24465956.28624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18">
+        <f>$P$2*(1-$Q$2)</f>
+        <v>103225382.316</v>
+      </c>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <f>$P$2*(1-$Q$2)</f>
+        <v>103225382.316</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20">
+        <f>$P$2*(1-$Q$2)</f>
+        <v>103225382.316</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21">
+        <f>$P$2*(1-$Q$2)</f>
+        <v>103225382.316</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22">
+        <f>$P$2*(1-$Q$2)</f>
+        <v>103225382.316</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C23" s="14"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>129.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD366040-A366-4612-8000-D8C58CA34DFB}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2312,21 +4771,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>978.50800000000004</v>
@@ -2334,10 +4793,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <f>[1]India!R55*0.84</f>
@@ -2346,10 +4805,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>887.1805866666673</v>
@@ -2357,10 +4816,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>8.0522740000000006</v>
@@ -2368,10 +4827,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>49.602007840000013</v>
@@ -2379,10 +4838,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>9.4480014933333365</v>
@@ -2390,10 +4849,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>16.093</v>
@@ -2401,10 +4860,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>121.66307999999998</v>
@@ -2412,10 +4871,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>23.17392000000001</v>
@@ -2423,10 +4882,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>4.5739999999999998</v>
@@ -2434,10 +4893,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>28.175840000000001</v>
@@ -2445,10 +4904,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>5.3668266666666682</v>
@@ -2456,10 +4915,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>14.397443772284356</v>
@@ -2467,10 +4926,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>2.742370242339879</v>
@@ -2478,10 +4937,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>0.37485093796559932</v>
@@ -2489,10 +4948,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>7.1400178660114166E-2</v>
@@ -2500,10 +4959,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>14.6706625897452</v>
@@ -2511,10 +4970,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>2.7944119218562289</v>
@@ -2522,10 +4981,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.91921444797902263</v>
@@ -2533,10 +4992,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2544,10 +5003,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2555,10 +5014,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2566,10 +5025,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2577,10 +5036,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2588,10 +5047,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2599,10 +5058,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2610,10 +5069,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2621,10 +5080,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2632,10 +5091,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2643,10 +5102,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2654,10 +5113,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2665,10 +5124,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2676,10 +5135,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2687,10 +5146,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2698,10 +5157,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2709,10 +5168,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2720,10 +5179,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2731,10 +5190,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2742,10 +5201,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2753,10 +5212,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2764,10 +5223,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2775,10 +5234,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2786,10 +5245,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2797,10 +5256,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2808,10 +5267,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2819,12 +5278,34 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
     </row>
